--- a/notebooks/ERI1/input/Guo_2023.xlsx
+++ b/notebooks/ERI1/input/Guo_2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="154">
   <si>
     <t xml:space="preserve">Individual</t>
   </si>
@@ -614,13 +614,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1341,24 +1341,18 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
@@ -1369,7 +1363,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
@@ -1380,68 +1374,65 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>59</v>
@@ -1449,7 +1440,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>59</v>
@@ -1457,15 +1448,18 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>59</v>
@@ -1476,46 +1470,43 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H35" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>59</v>
@@ -1523,15 +1514,18 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>59</v>
@@ -1542,46 +1536,49 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>59</v>
@@ -1593,34 +1590,28 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>119</v>
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
-        <v>120</v>
+      <c r="G44" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>59</v>
@@ -1628,37 +1619,37 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>59</v>
@@ -1666,32 +1657,32 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>59</v>
@@ -1699,7 +1690,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>59</v>
@@ -1707,18 +1698,18 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>59</v>
@@ -1726,7 +1717,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>59</v>
@@ -1734,41 +1725,41 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>102</v>
+        <v>135</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>59</v>
@@ -1776,7 +1767,19 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>59</v>
@@ -1784,19 +1787,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>59</v>
@@ -1804,7 +1795,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>59</v>
@@ -1812,7 +1803,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>59</v>
@@ -1820,7 +1811,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>59</v>
@@ -1828,20 +1819,41 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>59</v>
@@ -1858,7 +1870,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>59</v>
@@ -1875,41 +1887,23 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>59</v>
@@ -1917,7 +1911,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>59</v>
@@ -1925,7 +1919,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>59</v>
@@ -1933,41 +1927,25 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G75" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G76" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>59</v>
       </c>
     </row>
